--- a/MBA/Aula 1 - Fundamentos de Estatística I - Wilson Tarantin Junior/Planilha Suporte - Fundamentos de Estatística.xlsx
+++ b/MBA/Aula 1 - Fundamentos de Estatística I - Wilson Tarantin Junior/Planilha Suporte - Fundamentos de Estatística.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilso\Desktop\Wilson\AULAS\MBA DSA\Fundamentos de Estatística\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvict\OneDrive\Documentos\CodingProjects\MBA\Aula 1 - Fundamentos de Estatística I - Wilson Tarantin Junior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232CE754-51A2-4A36-A6F3-1A208E56BDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D852AC70-44C2-4AF9-83DB-D65658A0004D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="901" xr2:uid="{04CB3BD1-3292-44FE-9392-712598B4DD35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="7" xr2:uid="{04CB3BD1-3292-44FE-9392-712598B4DD35}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela de Frequências" sheetId="1" r:id="rId1"/>
@@ -6171,37 +6171,37 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.1353352832366127</c:v>
+                  <c:v>4.5399929762484854E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2706705664732254</c:v>
+                  <c:v>4.5399929762484856E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2706705664732254</c:v>
+                  <c:v>2.2699964881242427E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18044704431548361</c:v>
+                  <c:v>7.5666549604141422E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0223522157741806E-2</c:v>
+                  <c:v>1.8916637401035354E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6089408863096722E-2</c:v>
+                  <c:v>3.7833274802070709E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2029802954365574E-2</c:v>
+                  <c:v>6.3055458003451179E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4370865583901638E-3</c:v>
+                  <c:v>9.0079225719215991E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5927163959754094E-4</c:v>
+                  <c:v>0.11259903214901998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9094925324389798E-4</c:v>
+                  <c:v>0.1251100357211333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8189850648779595E-5</c:v>
+                  <c:v>0.1251100357211333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18736,7 +18736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845C903B-1A40-4220-A13D-951E27017FBF}">
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -38361,7 +38361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8C2A2E-C1AF-4FD3-B9D3-F1539D59677A}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -38386,14 +38388,14 @@
         <v>258</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
       </c>
       <c r="F2" s="117">
         <f>(EXP(-$B$2)*($B$2^E2))/FACT(E2)</f>
-        <v>0.1353352832366127</v>
+        <v>4.5399929762484854E-5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -38401,14 +38403,14 @@
         <v>97</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="117">
         <f t="shared" ref="F3:F12" si="0">(EXP(-$B$2)*($B$2^E3))/FACT(E3)</f>
-        <v>0.2706705664732254</v>
+        <v>4.5399929762484856E-4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -38417,7 +38419,7 @@
       </c>
       <c r="F4" s="117">
         <f t="shared" si="0"/>
-        <v>0.2706705664732254</v>
+        <v>2.2699964881242427E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -38426,7 +38428,7 @@
       </c>
       <c r="F5" s="117">
         <f t="shared" si="0"/>
-        <v>0.18044704431548361</v>
+        <v>7.5666549604141422E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -38435,14 +38437,14 @@
       </c>
       <c r="B6" s="48">
         <f>(EXP(-B2)*(B2^(B3)))/FACT(B3)</f>
-        <v>0.2706705664732254</v>
+        <v>0.1251100357211333</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
       </c>
       <c r="F6" s="117">
         <f t="shared" si="0"/>
-        <v>9.0223522157741806E-2</v>
+        <v>1.8916637401035354E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -38452,7 +38454,7 @@
       </c>
       <c r="F7" s="117">
         <f t="shared" si="0"/>
-        <v>3.6089408863096722E-2</v>
+        <v>3.7833274802070709E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -38461,7 +38463,7 @@
       </c>
       <c r="F8" s="117">
         <f t="shared" si="0"/>
-        <v>1.2029802954365574E-2</v>
+        <v>6.3055458003451179E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -38476,7 +38478,7 @@
       </c>
       <c r="F9" s="117">
         <f t="shared" si="0"/>
-        <v>3.4370865583901638E-3</v>
+        <v>9.0079225719215991E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -38491,7 +38493,7 @@
       </c>
       <c r="F10" s="117">
         <f t="shared" si="0"/>
-        <v>8.5927163959754094E-4</v>
+        <v>0.11259903214901998</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -38506,7 +38508,7 @@
       </c>
       <c r="F11" s="117">
         <f t="shared" si="0"/>
-        <v>1.9094925324389798E-4</v>
+        <v>0.1251100357211333</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -38520,8 +38522,8 @@
         <v>10</v>
       </c>
       <c r="F12" s="117">
-        <f t="shared" si="0"/>
-        <v>3.8189850648779595E-5</v>
+        <f>(EXP(-$B$2)*($B$2^E12))/FACT(E12)</f>
+        <v>0.1251100357211333</v>
       </c>
     </row>
   </sheetData>
@@ -38534,7 +38536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17B2C1D-D15A-40F3-9BFB-1956004EA2B9}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
